--- a/dictionaries/urban_ath/1_1/1_1_trimester_rep.xlsx
+++ b/dictionaries/urban_ath/1_1/1_1_trimester_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\ATHLETE\DOCUMENTS\dictionaries\jose_dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{461D9A8A-77D4-4490-A83E-82B1CB5F75F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CDDBB97-2686-46B6-930B-38C646ABEC61}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{461D9A8A-77D4-4490-A83E-82B1CB5F75F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E002FFFB-0B96-40A4-9447-0D45C162BEE7}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -1974,7 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
@@ -3437,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -4208,7 +4211,7 @@
         <v>17</v>
       </c>
       <c r="B55">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C55" s="5" t="b">
         <v>0</v>

--- a/dictionaries/urban_ath/1_1/1_1_trimester_rep.xlsx
+++ b/dictionaries/urban_ath/1_1/1_1_trimester_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\ATHLETE\DOCUMENTS\dictionaries\jose_dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{461D9A8A-77D4-4490-A83E-82B1CB5F75F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E002FFFB-0B96-40A4-9447-0D45C162BEE7}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{461D9A8A-77D4-4490-A83E-82B1CB5F75F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{364AABF4-DFB3-449E-83E3-7D63AD0C3B28}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="256" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <t>ath_blueyn300_t</t>
   </si>
   <si>
-    <t>binary</t>
+    <t>boolean</t>
   </si>
   <si>
     <t>is there a blue space  &gt; 5,000 m2 in a distance of 300 m? at trimester</t>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -2473,7 +2473,7 @@
       <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>82</v>
       </c>
       <c r="C36"/>
@@ -2485,7 +2485,7 @@
       <c r="A37" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>82</v>
       </c>
       <c r="C37"/>
@@ -3424,7 +3424,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A1:D104" xr:uid="{2A8193EC-26C3-47E8-AA62-347275DAEFB0}"/>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="A14:A15 B7 B38:B43 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="A14:A15 B7 B5 B36:B43" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3440,7 +3440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
